--- a/res.xlsx
+++ b/res.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Псков, ул. Ленина 35-28</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
@@ -548,17 +548,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Гастрит</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>К29.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Гематологическое исследование</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -606,32 +606,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -669,32 +653,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
